--- a/数据输入表格.xlsx
+++ b/数据输入表格.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyc\Desktop\ASDAN_TOOLKIT\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyc\Desktop\ASDAN_TOOLKIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15530AF5-FDAB-4E00-BC03-37D75B8A0626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEF33BA-9151-49D0-8414-65A3A9BC7C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1560" windowWidth="12330" windowHeight="11745" activeTab="1" xr2:uid="{5F168FF2-2839-794C-A5D1-DE3DCF59F8BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5F168FF2-2839-794C-A5D1-DE3DCF59F8BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="CITY_1" sheetId="6" r:id="rId1"/>
-    <sheet name="CITY_E" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="CITY_1" sheetId="6" r:id="rId2"/>
+    <sheet name="CITY_E" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>城市名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,12 +80,89 @@
     <t>市场份额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Penetration</t>
+  </si>
+  <si>
+    <t>Market Size</t>
+  </si>
+  <si>
+    <t>Avg. Price</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Agents</t>
+  </si>
+  <si>
+    <t>Product Quality Index</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Sales Volume</t>
+  </si>
+  <si>
+    <t>Market Share</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Marketing Investment</t>
+  </si>
+  <si>
+    <t>Sales volume</t>
+  </si>
+  <si>
+    <t>Market Report - Paris</t>
+  </si>
+  <si>
+    <t>Population Penetration Market Size Total Sales volume Avg. Price</t>
+  </si>
+  <si>
+    <t>12,000,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Product Quality </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Index</t>
+    </r>
+  </si>
+  <si>
+    <t>Shanghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Report - Singapore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +177,22 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,18 +212,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{B88DA88C-6927-41DC-AC1E-A9A9BF156845}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,11 +562,1753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B401F31-6171-4EAB-A8D9-D8C6F8DBDC11}">
+  <dimension ref="A1:G112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="15.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>8000000</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C51" s="3">
+        <v>160000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>102355</v>
+      </c>
+      <c r="E51" s="3">
+        <v>6352</v>
+      </c>
+      <c r="F51" s="3">
+        <v>102355</v>
+      </c>
+      <c r="G51" s="3">
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>250</v>
+      </c>
+      <c r="E53" s="2">
+        <v>8000</v>
+      </c>
+      <c r="F53" s="2">
+        <v>13000</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8.1199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>269.38</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8.4990000000000006</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1961</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>600000</v>
+      </c>
+      <c r="D55" s="3">
+        <v>130.99</v>
+      </c>
+      <c r="E55" s="3">
+        <v>7888</v>
+      </c>
+      <c r="F55" s="3">
+        <v>552</v>
+      </c>
+      <c r="G55" s="3">
+        <v>3.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>400000</v>
+      </c>
+      <c r="D56" s="3">
+        <v>52.79</v>
+      </c>
+      <c r="E56" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2535</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8199</v>
+      </c>
+      <c r="F57" s="3">
+        <v>12977</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8.1099999999999992E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>23</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>100000</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1412.42</v>
+      </c>
+      <c r="E58" s="4">
+        <v>5800</v>
+      </c>
+      <c r="F58" s="4">
+        <v>354</v>
+      </c>
+      <c r="G58" s="4">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>26</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>166</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4871</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>27</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>104.46</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6999</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3416</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>34</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>70</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10222</v>
+      </c>
+      <c r="G61" s="3">
+        <v>6.3799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>40</v>
+      </c>
+      <c r="B62" s="3">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>818118</v>
+      </c>
+      <c r="D62" s="3">
+        <v>151</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7699</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>41</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="D63" s="3">
+        <v>277.77</v>
+      </c>
+      <c r="E63" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F63" s="3">
+        <v>7593</v>
+      </c>
+      <c r="G63" s="3">
+        <v>4.7400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>48</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>115.3</v>
+      </c>
+      <c r="E64" s="3">
+        <v>7777</v>
+      </c>
+      <c r="F64" s="3">
+        <v>13009</v>
+      </c>
+      <c r="G64" s="3">
+        <v>8.1300000000000011E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>58</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2000001</v>
+      </c>
+      <c r="D65" s="3">
+        <v>154.32</v>
+      </c>
+      <c r="E65" s="3">
+        <v>8999</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1211</v>
+      </c>
+      <c r="G65" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>68</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>250</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>513</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>73</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="D67" s="3">
+        <v>340</v>
+      </c>
+      <c r="E67" s="3">
+        <v>8580</v>
+      </c>
+      <c r="F67" s="3">
+        <v>5568</v>
+      </c>
+      <c r="G67" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>74</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="D68" s="3">
+        <v>261.69</v>
+      </c>
+      <c r="E68" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F68" s="3">
+        <v>5162</v>
+      </c>
+      <c r="G68" s="3">
+        <v>3.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>85</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3">
+        <v>125000</v>
+      </c>
+      <c r="D69" s="3">
+        <v>11.62</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F69" s="3">
+        <v>990</v>
+      </c>
+      <c r="G69" s="3">
+        <v>6.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>87</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="D70" s="3">
+        <v>105.48</v>
+      </c>
+      <c r="E70" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F70" s="3">
+        <v>12324</v>
+      </c>
+      <c r="G70" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>88</v>
+      </c>
+      <c r="B71" s="3">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="D71" s="3">
+        <v>386.09</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7250</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1376</v>
+      </c>
+      <c r="G71" s="3">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>90</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="D72" s="3">
+        <v>144.56</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8497</v>
+      </c>
+      <c r="F72" s="3">
+        <v>665</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>104</v>
+      </c>
+      <c r="B73" s="4">
+        <v>3</v>
+      </c>
+      <c r="C73" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="D73" s="4">
+        <v>99.99</v>
+      </c>
+      <c r="E73" s="4">
+        <v>8499</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2021</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D79" s="8">
+        <v>240000</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="3">
+        <v>188029</v>
+      </c>
+      <c r="G79" s="3">
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>7</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4">
+        <v>84500</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F81" s="4">
+        <v>3821</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>12</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D82" s="3">
+        <v>52.79</v>
+      </c>
+      <c r="E82" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F82" s="3">
+        <v>12585</v>
+      </c>
+      <c r="G82" s="3">
+        <v>5.2400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>15</v>
+      </c>
+      <c r="B83" s="3">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D83" s="3">
+        <v>201.16</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6399</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6611</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>18</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D84" s="3">
+        <v>68.89</v>
+      </c>
+      <c r="E84" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1152</v>
+      </c>
+      <c r="G84" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>24</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D85" s="3">
+        <v>156.71</v>
+      </c>
+      <c r="E85" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F85" s="3">
+        <v>11378</v>
+      </c>
+      <c r="G85" s="3">
+        <v>4.7400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>28</v>
+      </c>
+      <c r="B86" s="3">
+        <v>3</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="D86" s="3">
+        <v>170.95</v>
+      </c>
+      <c r="E86" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F86" s="3">
+        <v>6588</v>
+      </c>
+      <c r="G86" s="3">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>30</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3">
+        <v>700000</v>
+      </c>
+      <c r="D87" s="3">
+        <v>66</v>
+      </c>
+      <c r="E87" s="3">
+        <v>6499</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1134</v>
+      </c>
+      <c r="G87" s="3">
+        <v>4.6999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>39</v>
+      </c>
+      <c r="B88" s="3">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="D88" s="3">
+        <v>223.21</v>
+      </c>
+      <c r="E88" s="3">
+        <v>7899</v>
+      </c>
+      <c r="F88" s="3">
+        <v>7189</v>
+      </c>
+      <c r="G88" s="3">
+        <v>2.9900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>40</v>
+      </c>
+      <c r="B89" s="3">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>818118</v>
+      </c>
+      <c r="D89" s="3">
+        <v>151</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7699</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1999</v>
+      </c>
+      <c r="G89" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>45</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="D90" s="3">
+        <v>149.9</v>
+      </c>
+      <c r="E90" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F90" s="3">
+        <v>11128</v>
+      </c>
+      <c r="G90" s="3">
+        <v>4.6300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>47</v>
+      </c>
+      <c r="B91" s="4">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4">
+        <v>320000</v>
+      </c>
+      <c r="D91" s="4">
+        <v>175</v>
+      </c>
+      <c r="E91" s="4">
+        <v>4299</v>
+      </c>
+      <c r="F91" s="4">
+        <v>14000</v>
+      </c>
+      <c r="G91" s="4">
+        <v>5.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>51</v>
+      </c>
+      <c r="B92" s="4">
+        <v>3</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D92" s="4">
+        <v>185.39</v>
+      </c>
+      <c r="E92" s="4">
+        <v>5299</v>
+      </c>
+      <c r="F92" s="4">
+        <v>8772</v>
+      </c>
+      <c r="G92" s="4">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>56</v>
+      </c>
+      <c r="B93" s="3">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>860000</v>
+      </c>
+      <c r="D93" s="3">
+        <v>185.18</v>
+      </c>
+      <c r="E93" s="3">
+        <v>7650</v>
+      </c>
+      <c r="F93" s="3">
+        <v>3295</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>59</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="3">
+        <v>800000</v>
+      </c>
+      <c r="D94" s="3">
+        <v>25.02</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>15983</v>
+      </c>
+      <c r="G94" s="3">
+        <v>6.6500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>61</v>
+      </c>
+      <c r="B95" s="3">
+        <v>3</v>
+      </c>
+      <c r="C95" s="3">
+        <v>600000</v>
+      </c>
+      <c r="D95" s="3">
+        <v>60</v>
+      </c>
+      <c r="E95" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F95" s="3">
+        <v>816</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>63</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D96" s="3">
+        <v>50</v>
+      </c>
+      <c r="E96" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1260</v>
+      </c>
+      <c r="G96" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>66</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D97" s="3">
+        <v>20</v>
+      </c>
+      <c r="E97" s="3">
+        <v>7998</v>
+      </c>
+      <c r="F97" s="3">
+        <v>442</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>68</v>
+      </c>
+      <c r="B98" s="3">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3">
+        <v>250</v>
+      </c>
+      <c r="E98" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1860</v>
+      </c>
+      <c r="G98" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>69</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1800001</v>
+      </c>
+      <c r="D99" s="3">
+        <v>11</v>
+      </c>
+      <c r="E99" s="3">
+        <v>8.1590000000000007</v>
+      </c>
+      <c r="F99" s="3">
+        <v>9456</v>
+      </c>
+      <c r="G99" s="3">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>72</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D100" s="3">
+        <v>321.25</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8499</v>
+      </c>
+      <c r="F100" s="3">
+        <v>11558</v>
+      </c>
+      <c r="G100" s="3">
+        <v>4.8099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>75</v>
+      </c>
+      <c r="B101" s="3">
+        <v>3</v>
+      </c>
+      <c r="C101" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D101" s="3">
+        <v>210.83</v>
+      </c>
+      <c r="E101" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>4505</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>76</v>
+      </c>
+      <c r="B102" s="3">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3">
+        <v>750000</v>
+      </c>
+      <c r="D102" s="3">
+        <v>150</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1439</v>
+      </c>
+      <c r="G102" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>79</v>
+      </c>
+      <c r="B103" s="3">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D103" s="3">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="E103" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1512</v>
+      </c>
+      <c r="G103" s="3">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>82</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1984.12</v>
+      </c>
+      <c r="E104" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F104" s="3">
+        <v>252</v>
+      </c>
+      <c r="G104" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>86</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2</v>
+      </c>
+      <c r="C105" s="3">
+        <v>700000</v>
+      </c>
+      <c r="D105" s="3">
+        <v>218.18</v>
+      </c>
+      <c r="E105" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F105" s="3">
+        <v>2482</v>
+      </c>
+      <c r="G105" s="3">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>92</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2</v>
+      </c>
+      <c r="C106" s="3">
+        <v>900000</v>
+      </c>
+      <c r="D106" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="E106" s="3">
+        <v>5999</v>
+      </c>
+      <c r="F106" s="3">
+        <v>8227</v>
+      </c>
+      <c r="G106" s="3">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>93</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D107" s="3">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="E107" s="3">
+        <v>8188</v>
+      </c>
+      <c r="F107" s="3">
+        <v>12162</v>
+      </c>
+      <c r="G107" s="3">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>95</v>
+      </c>
+      <c r="B108" s="3">
+        <v>3</v>
+      </c>
+      <c r="C108" s="3">
+        <v>700000</v>
+      </c>
+      <c r="D108" s="3">
+        <v>157.91999999999999</v>
+      </c>
+      <c r="E108" s="3">
+        <v>5199</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1089</v>
+      </c>
+      <c r="G108" s="3">
+        <v>4.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>96</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D109" s="3">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="E109" s="3">
+        <v>5388</v>
+      </c>
+      <c r="F109" s="3">
+        <v>10375</v>
+      </c>
+      <c r="G109" s="3">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>98</v>
+      </c>
+      <c r="B110" s="3">
+        <v>3</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F110" s="3">
+        <v>7829</v>
+      </c>
+      <c r="G110" s="3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>105</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="D111" s="3">
+        <v>74.08</v>
+      </c>
+      <c r="E111" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F111" s="3">
+        <v>3292</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>108</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D112" s="4">
+        <v>200</v>
+      </c>
+      <c r="E112" s="4">
+        <v>7800</v>
+      </c>
+      <c r="F112" s="4">
+        <v>3838</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D79:E79"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBAFB95-8E1D-ED41-A00F-545DFD081B86}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScale="227" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -472,6 +2336,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="4">
+        <v>240000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>159621</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6302</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
@@ -493,6 +2377,972 @@
       </c>
       <c r="G3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2595101</v>
+      </c>
+      <c r="D4" s="4">
+        <v>201.17</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8650</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8846</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>120000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6050</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5629</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.3399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>130.99</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2105</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>700</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8250</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>37500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>102.14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6367</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5194</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>201.16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5888</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6314</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1480000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>190</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7950</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2190</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>68.89</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2232</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2348000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>231</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8848</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4457</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>469</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>161.91999999999999</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8646</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>315</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>150</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8510</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1549</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8200</v>
+      </c>
+      <c r="F17" s="2">
+        <v>315</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>161.81</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>12978</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5.4000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>400000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>223.21</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7799</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1660</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>189600</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3764</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>91.37</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2351</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="D23" s="4">
+        <v>77.95</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9000</v>
+      </c>
+      <c r="F23" s="4">
+        <v>794</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>650000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>37</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>987</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>400000</v>
+      </c>
+      <c r="D25" s="3">
+        <v>185.18</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7650</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1979</v>
+      </c>
+      <c r="G25" s="3">
+        <v>8.199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>976421</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>454</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>63</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1442</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>24.65</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5555</v>
+      </c>
+      <c r="F28" s="3">
+        <v>15120</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>68</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>250</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2433</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>700001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8449</v>
+      </c>
+      <c r="F30" s="3">
+        <v>242</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>73</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="D31" s="3">
+        <v>340</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8750</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4432</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>75</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>210.83</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3363</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>77</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>150</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8250</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2053</v>
+      </c>
+      <c r="G33" s="3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>80</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>225</v>
+      </c>
+      <c r="E34" s="3">
+        <v>7650</v>
+      </c>
+      <c r="F34" s="3">
+        <v>13167</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>81</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1950000</v>
+      </c>
+      <c r="D35" s="3">
+        <v>143.97999999999999</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9559</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>86</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>700000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>218.18</v>
+      </c>
+      <c r="E36" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1607</v>
+      </c>
+      <c r="G36" s="3">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>88</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="D37" s="4">
+        <v>386.09</v>
+      </c>
+      <c r="E37" s="4">
+        <v>7550</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2377</v>
+      </c>
+      <c r="G37" s="4">
+        <v>9.8999999999999991E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>90</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1610000</v>
+      </c>
+      <c r="D38" s="2">
+        <v>144.56</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8497</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="2">
+        <v>4.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>95</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>700000</v>
+      </c>
+      <c r="D39" s="3">
+        <v>157.91999999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <v>5099</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1641</v>
+      </c>
+      <c r="G39" s="3">
+        <v>6.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>97</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5.71</v>
+      </c>
+      <c r="E40" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F40" s="3">
+        <v>573</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>104</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8699</v>
+      </c>
+      <c r="F41" s="3">
+        <v>321</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>107</v>
+      </c>
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D42" s="4">
+        <v>354.78</v>
+      </c>
+      <c r="E42" s="4">
+        <v>6199</v>
+      </c>
+      <c r="F42" s="4">
+        <v>5352</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>108</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>200</v>
+      </c>
+      <c r="E43" s="2">
+        <v>7800</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2344</v>
+      </c>
+      <c r="G43" s="2">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>110</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>190.62</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1847</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>250</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8000</v>
+      </c>
+      <c r="F45" s="2">
+        <v>13000</v>
+      </c>
+      <c r="G45" s="2">
+        <v>8.1199999999999994E-2</v>
       </c>
     </row>
   </sheetData>
@@ -501,12 +3351,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE116E1-DFC5-2B42-A2FD-92416DFCFAC9}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="227" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,6 +3384,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>102355</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6352</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
@@ -555,6 +3425,489 @@
       </c>
       <c r="G3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>250</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.1199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>269.38</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8.4990000000000006</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1961</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>600000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>130.99</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7888</v>
+      </c>
+      <c r="F6" s="3">
+        <v>552</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>400000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>52.79</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2535</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8199</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12977</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8.1099999999999992E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1412.42</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5800</v>
+      </c>
+      <c r="F9" s="4">
+        <v>354</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>166</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4871</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>104.46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3416</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10222</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6.3799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>818118</v>
+      </c>
+      <c r="D13" s="3">
+        <v>151</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7699</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>277.77</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7593</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4.7400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>115.3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7777</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13009</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8.1300000000000011E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>154.32</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1211</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>250</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>513</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>73</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>340</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8580</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5568</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>261.69</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5162</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>85</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>125000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>11.62</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>990</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>105.48</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12324</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>88</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>386.09</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7250</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1376</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>90</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>144.56</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8497</v>
+      </c>
+      <c r="F23" s="3">
+        <v>665</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>104</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="D24" s="4">
+        <v>99.99</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8499</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2021</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.26E-2</v>
       </c>
     </row>
   </sheetData>
